--- a/data_raw/Coral_Nearest_DataLogger.xlsx
+++ b/data_raw/Coral_Nearest_DataLogger.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coral_Proxy_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\Git\MQ_MRes2021\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B30038-FA23-4B49-8CBF-73A7CF5D9D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B156597F-0C2E-4780-A8E4-D6E5AA4E2291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A6D0905A-CF28-4C11-AB5B-0C95788A3AE1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6D0905A-CF28-4C11-AB5B-0C95788A3AE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Coral Core Coordinates" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
   <si>
     <t>Coral Core Sr/Ca Proxy</t>
   </si>
@@ -231,9 +231,6 @@
   </si>
   <si>
     <t>Coordinates used for IDV extraction of GCM</t>
-  </si>
-  <si>
-    <t>CSV with year and mth extracted</t>
   </si>
   <si>
     <t>TANDFL1</t>
@@ -304,18 +301,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -466,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -477,11 +468,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -493,6 +482,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,21 +799,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6239A78E-2E21-4ACC-BF98-234DD2B56CEA}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6328125" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -851,432 +839,432 @@
       <c r="I1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-14.105</v>
+      </c>
+      <c r="E2" s="1">
+        <v>123.5356924</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="14">
+        <v>1.5579127231700001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-14.121</v>
+      </c>
+      <c r="E3" s="1">
+        <v>123.54672770000001</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="14">
+        <v>1.5692952038200001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-12.0875</v>
+      </c>
+      <c r="E4" s="1">
+        <v>96.875</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1808</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2009</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="14">
+        <v>1.9828514820799999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-12.095000000000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>96.880499999999998</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1987</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2009</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="14">
+        <v>1.5289538907400001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-21.91</v>
+      </c>
+      <c r="E6" s="1">
+        <v>113.97</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="14">
+        <v>6.5734313718200004E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-21.91</v>
+      </c>
+      <c r="E7" s="1">
+        <v>113.97</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="14">
+        <v>6.5734313718200004E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-21.87</v>
+      </c>
+      <c r="E8" s="1">
+        <v>114.15600000000001</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="14">
+        <v>1.26491106406E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-21.87</v>
+      </c>
+      <c r="E9" s="1">
+        <v>114.15600000000001</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="14">
+        <v>1.26491106406E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-21.893000000000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>113.96299999999999</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1961</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2008</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="14">
+        <v>1.1552056094E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-21.835999999999999</v>
+      </c>
+      <c r="E11" s="1">
+        <v>114.178</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1952</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2008</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="14">
+        <v>3.2506614711500001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-21.9</v>
+      </c>
+      <c r="E12" s="1">
+        <v>113.97</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1871</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1994</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="14">
+        <v>1.0640018797E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-28.28</v>
+      </c>
+      <c r="E13" s="1">
+        <v>113.46</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1794</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1994</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="10">
-        <v>-14.105</v>
-      </c>
-      <c r="E2" s="10">
-        <v>123.5356924</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="16">
-        <v>1.5579127231700001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="10">
-        <v>-14.121</v>
-      </c>
-      <c r="E3" s="10">
-        <v>123.54672770000001</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="16">
-        <v>1.5692952038200001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="10">
-        <v>-12.0875</v>
-      </c>
-      <c r="E4" s="10">
-        <v>96.875</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1808</v>
-      </c>
-      <c r="H4" s="10">
-        <v>2009</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="16">
-        <v>1.9828514820799999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="10">
-        <v>-12.095000000000001</v>
-      </c>
-      <c r="E5" s="10">
-        <v>96.880499999999998</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1987</v>
-      </c>
-      <c r="H5" s="10">
-        <v>2009</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="16">
-        <v>1.5289538907400001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="10">
-        <v>-21.91</v>
-      </c>
-      <c r="E6" s="10">
-        <v>113.97</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="16">
-        <v>6.5734313718200004E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="10">
-        <v>-21.91</v>
-      </c>
-      <c r="E7" s="10">
-        <v>113.97</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="16">
-        <v>6.5734313718200004E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="10">
-        <v>-21.87</v>
-      </c>
-      <c r="E8" s="10">
-        <v>114.15600000000001</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="16">
-        <v>1.26491106406E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="10">
-        <v>-21.87</v>
-      </c>
-      <c r="E9" s="10">
-        <v>114.15600000000001</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="16">
-        <v>1.26491106406E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="10">
-        <v>-21.893000000000001</v>
-      </c>
-      <c r="E10" s="10">
-        <v>113.96299999999999</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="10">
-        <v>1961</v>
-      </c>
-      <c r="H10" s="10">
-        <v>2008</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="16">
-        <v>1.1552056094E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="10">
-        <v>-21.835999999999999</v>
-      </c>
-      <c r="E11" s="10">
-        <v>114.178</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="10">
-        <v>1952</v>
-      </c>
-      <c r="H11" s="10">
-        <v>2008</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="16">
-        <v>3.2506614711500001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="10">
-        <v>-21.9</v>
-      </c>
-      <c r="E12" s="10">
-        <v>113.97</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="10">
-        <v>1871</v>
-      </c>
-      <c r="H12" s="10">
-        <v>1994</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12" s="16">
-        <v>1.0640018797E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="10">
-        <v>-28.28</v>
-      </c>
-      <c r="E13" s="10">
-        <v>113.46</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="10">
-        <v>1794</v>
-      </c>
-      <c r="H13" s="10">
-        <v>1994</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="16"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1304,12 +1292,12 @@
       <c r="I14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J14" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1337,12 +1325,12 @@
       <c r="I15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="16"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1370,12 +1358,12 @@
       <c r="I16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="16"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -1403,15 +1391,13 @@
       <c r="I17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
-        <v>50</v>
-      </c>
+      <c r="J17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1426,13 +1412,13 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="7" t="s">
         <v>41</v>
@@ -1441,7 +1427,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>47</v>
       </c>
@@ -1452,7 +1438,7 @@
         <v>96.875</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>48</v>
       </c>
@@ -1463,15 +1449,15 @@
         <v>123.54672770000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>41</v>
@@ -1480,7 +1466,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>47</v>
       </c>
@@ -1491,7 +1477,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>48</v>
       </c>
